--- a/Raghav_Paul/Excel/data.xlsx
+++ b/Raghav_Paul/Excel/data.xlsx
@@ -13,6 +13,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -21,7 +35,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,37 +45,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,6 +67,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -91,6 +97,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -98,31 +142,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,14 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -152,30 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,175 +209,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +415,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -423,11 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,15 +471,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -467,165 +480,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,14 +957,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
